--- a/data/trans_orig/DESPLA_MEDIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_MEDIO-Clase-trans_orig.xlsx
@@ -740,12 +740,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -755,12 +755,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -790,12 +790,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -888,12 +888,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -1535,12 +1535,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2102</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,12 +1570,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,12 +1605,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1681</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1620,12 +1620,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2102</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6312</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2345,12 +2345,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2380,12 +2380,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2400,12 +2400,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>4633</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2415,12 +2415,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2443,12 +2443,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6312</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2458,12 +2458,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,12 +2478,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2493,12 +2493,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,12 +2513,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>4633</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2591,12 +2591,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2606,12 +2606,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3175,12 +3175,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3195,12 +3195,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3210,12 +3210,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3920,12 +3920,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1832</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3955,12 +3955,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3970,12 +3970,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3990,12 +3990,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>1833</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4005,12 +4005,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1832</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4048,12 +4048,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4372,12 +4372,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1832</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -4387,12 +4387,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -5510,12 +5510,12 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -5525,12 +5525,12 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -5545,12 +5545,12 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -5560,12 +5560,12 @@
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -5580,12 +5580,12 @@
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
@@ -5595,12 +5595,12 @@
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7455,12 +7455,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7470,12 +7470,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -7490,12 +7490,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7505,12 +7505,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -7525,12 +7525,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7540,12 +7540,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8250,12 +8250,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -8265,12 +8265,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -8285,12 +8285,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -8300,12 +8300,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -8320,12 +8320,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -8335,12 +8335,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9080,12 +9080,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -9095,12 +9095,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -9875,12 +9875,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -9890,12 +9890,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -10557,12 +10557,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -10572,12 +10572,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -10635,12 +10635,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -10650,12 +10650,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -10670,12 +10670,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -10685,12 +10685,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -10705,12 +10705,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -10720,12 +10720,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -10974,12 +10974,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -10989,12 +10989,12 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -11009,12 +11009,12 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -11024,12 +11024,12 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -11044,12 +11044,12 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -11059,12 +11059,12 @@
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12354,12 +12354,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -12369,12 +12369,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -12389,12 +12389,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -12404,12 +12404,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -12424,12 +12424,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -12439,12 +12439,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12467,12 +12467,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -12482,12 +12482,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -12502,12 +12502,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -12517,12 +12517,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -12537,12 +12537,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -12552,12 +12552,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -13149,12 +13149,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -13164,12 +13164,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -13184,12 +13184,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -13199,12 +13199,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -13219,12 +13219,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -13234,12 +13234,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -13262,12 +13262,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -13277,12 +13277,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -13297,12 +13297,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -13312,12 +13312,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -13332,12 +13332,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -13347,12 +13347,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -13944,12 +13944,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -13959,12 +13959,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -13979,12 +13979,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -13994,12 +13994,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -14014,12 +14014,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -14029,12 +14029,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -14057,12 +14057,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -14072,12 +14072,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -14092,12 +14092,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -14107,12 +14107,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -14127,12 +14127,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -14142,12 +14142,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -14739,12 +14739,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -14754,12 +14754,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -14774,12 +14774,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -14789,12 +14789,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -14809,12 +14809,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -14824,12 +14824,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -14867,12 +14867,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -14887,12 +14887,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -14902,12 +14902,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -14922,12 +14922,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -14937,12 +14937,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -15534,12 +15534,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -15549,12 +15549,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -15569,12 +15569,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -15584,12 +15584,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -15604,12 +15604,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -15619,12 +15619,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -15647,12 +15647,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -15662,12 +15662,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -15682,12 +15682,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -15697,12 +15697,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -15717,12 +15717,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -15732,12 +15732,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -16329,12 +16329,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -16344,12 +16344,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -16364,12 +16364,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -16379,12 +16379,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -16399,12 +16399,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -16414,12 +16414,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -16442,12 +16442,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -16457,12 +16457,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -16477,12 +16477,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -16492,12 +16492,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -16512,12 +16512,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -16527,12 +16527,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -17124,12 +17124,12 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -17139,12 +17139,12 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -17159,12 +17159,12 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -17174,12 +17174,12 @@
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -17194,12 +17194,12 @@
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
@@ -17209,12 +17209,12 @@
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -17237,12 +17237,12 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -17272,12 +17272,12 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -17287,12 +17287,12 @@
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -17307,12 +17307,12 @@
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
@@ -17322,12 +17322,12 @@
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/DESPLA_MEDIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_MEDIO-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Medios de transporte a la actividad principal en Andalucia</t>
+          <t>Medios de transporte a la actividad principal en Andalucia (tasa de respuesta: 99,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6352,7 +6352,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Medios de transporte a la actividad principal en C.Valenciana</t>
+          <t>Medios de transporte a la actividad principal en C.Valenciana (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -12159,7 +12159,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Medios de transporte a la actividad principal en Barcelona</t>
+          <t>Medios de transporte a la actividad principal en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/DESPLA_MEDIO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_MEDIO-Clase-trans_orig.xlsx
@@ -858,7 +858,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7437</t>
+          <t>7698</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>7487</t>
+          <t>7540</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6945</t>
+          <t>7661</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23586</t>
+          <t>23478</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10347</t>
+          <t>10505</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24317</t>
+          <t>23611</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>19828</t>
+          <t>20928</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>40768</t>
+          <t>42587</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>10,07%</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>136614</t>
+          <t>137960</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>166686</t>
+          <t>168246</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,83%</t>
+          <t>62,43%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,43%</t>
+          <t>76,14%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,12 +1114,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>129597</t>
+          <t>128775</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>151610</t>
+          <t>151812</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>64,2%</t>
+          <t>63,79%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>75,1%</t>
+          <t>75,2%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>276216</t>
+          <t>273863</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>312054</t>
+          <t>311597</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>65,32%</t>
+          <t>64,77%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>73,8%</t>
+          <t>73,69%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4286</t>
+          <t>4730</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16074</t>
+          <t>16981</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1207,12 +1207,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>4778</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>5476</t>
+          <t>5447</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>18571</t>
+          <t>17831</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -1305,12 +1305,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32153</t>
+          <t>32159</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>58050</t>
+          <t>57493</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,12 +1340,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35248</t>
+          <t>34482</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>55052</t>
+          <t>54933</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>71678</t>
+          <t>71960</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>104645</t>
+          <t>105363</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1390,12 +1390,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>24,92%</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>8316</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>8155</t>
+          <t>7469</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7541</t>
+          <t>8288</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22895</t>
+          <t>24038</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1776,12 +1776,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13430</t>
+          <t>13928</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28894</t>
+          <t>28731</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,12 +1831,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>25631</t>
+          <t>24700</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>47592</t>
+          <t>46140</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>12,92%</t>
         </is>
       </c>
     </row>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>143081</t>
+          <t>142118</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>168061</t>
+          <t>168370</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>70,98%</t>
+          <t>70,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>83,37%</t>
+          <t>83,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,12 +1909,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>85969</t>
+          <t>85912</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>107515</t>
+          <t>107270</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1924,12 +1924,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>55,22%</t>
+          <t>55,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>69,06%</t>
+          <t>68,91%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>234964</t>
+          <t>237117</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>269512</t>
+          <t>270241</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>65,77%</t>
+          <t>66,37%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>75,44%</t>
+          <t>75,64%</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>980</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13285</t>
+          <t>12799</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,12 +2022,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>472</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4904</t>
+          <t>5433</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,12 +2057,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>2058</t>
+          <t>2452</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>14880</t>
+          <t>14712</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2072,12 +2072,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -2100,12 +2100,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18295</t>
+          <t>18046</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>37993</t>
+          <t>37783</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2115,12 +2115,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>26407</t>
+          <t>26540</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>44456</t>
+          <t>44913</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>49055</t>
+          <t>49075</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>75184</t>
+          <t>76083</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2185,12 +2185,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>21,3%</t>
         </is>
       </c>
     </row>
@@ -2556,12 +2556,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>332</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>27848</t>
+          <t>28191</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2571,39 +2571,39 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>7,76%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
           <t>—%</t>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>151</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>22890</t>
+          <t>22922</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,79%</t>
         </is>
       </c>
     </row>
@@ -2669,12 +2669,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>284265</t>
+          <t>282031</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>354748</t>
+          <t>354276</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>98,84%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,12 +2704,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>17506</t>
+          <t>17249</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>27485</t>
+          <t>26928</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2719,12 +2719,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>47,1%</t>
+          <t>46,41%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>73,95%</t>
+          <t>72,45%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>296329</t>
+          <t>295326</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>387290</t>
+          <t>387522</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2754,12 +2754,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>74,81%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,84%</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22462</t>
+          <t>22606</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>4928</t>
+          <t>4784</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>21389</t>
+          <t>20004</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -2895,12 +2895,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>911</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>35410</t>
+          <t>37873</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2910,12 +2910,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2930,12 +2930,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>8615</t>
+          <t>9023</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>18553</t>
+          <t>18576</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2945,12 +2945,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>49,92%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2965,12 +2965,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>5374</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>66035</t>
+          <t>65834</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2980,12 +2980,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,62%</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7694</t>
+          <t>7750</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>480</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>6718</t>
+          <t>7023</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>11486</t>
+          <t>10883</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -3351,12 +3351,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18579</t>
+          <t>19213</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>40350</t>
+          <t>39995</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3366,12 +3366,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3386,12 +3386,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>21610</t>
+          <t>21753</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>41656</t>
+          <t>41493</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3401,12 +3401,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>45028</t>
+          <t>45406</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>74987</t>
+          <t>73602</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3436,12 +3436,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,51%</t>
         </is>
       </c>
     </row>
@@ -3464,12 +3464,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>192260</t>
+          <t>193039</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>225427</t>
+          <t>224454</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3479,12 +3479,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>68,66%</t>
+          <t>68,94%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>80,5%</t>
+          <t>80,15%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>121670</t>
+          <t>119601</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>146421</t>
+          <t>146502</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3514,12 +3514,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>53,56%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>64,45%</t>
+          <t>64,49%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>322697</t>
+          <t>321229</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>365022</t>
+          <t>364857</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>63,62%</t>
+          <t>63,33%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>71,97%</t>
+          <t>71,94%</t>
         </is>
       </c>
     </row>
@@ -3577,12 +3577,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>987</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8044</t>
+          <t>8509</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3592,12 +3592,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3612,12 +3612,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>281</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>4712</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3627,12 +3627,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3647,12 +3647,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>2083</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>10077</t>
+          <t>10230</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3662,12 +3662,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -3690,12 +3690,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>23896</t>
+          <t>24880</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>49067</t>
+          <t>49519</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3705,12 +3705,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3725,12 +3725,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>48203</t>
+          <t>46848</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>71596</t>
+          <t>70723</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3740,12 +3740,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3760,12 +3760,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>78131</t>
+          <t>79189</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>113251</t>
+          <t>113345</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3775,12 +3775,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>22,35%</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>3970</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
@@ -4146,12 +4146,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>8333</t>
+          <t>7738</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>23923</t>
+          <t>23164</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>14008</t>
+          <t>11297</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>55585</t>
+          <t>54051</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4216,12 +4216,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>24886</t>
+          <t>26314</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>70456</t>
+          <t>70631</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4231,12 +4231,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>20,16%</t>
         </is>
       </c>
     </row>
@@ -4259,12 +4259,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>91184</t>
+          <t>90719</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>111585</t>
+          <t>111914</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4274,12 +4274,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>70,18%</t>
+          <t>69,83%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>85,89%</t>
+          <t>86,14%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4294,12 +4294,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>29098</t>
+          <t>30843</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>123925</t>
+          <t>121480</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4309,12 +4309,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>55,09%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4329,12 +4329,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>100618</t>
+          <t>96936</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>234621</t>
+          <t>235919</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4344,12 +4344,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>66,95%</t>
+          <t>67,32%</t>
         </is>
       </c>
     </row>
@@ -4407,12 +4407,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>239</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>162939</t>
+          <t>157247</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>73,89%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4442,12 +4442,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>209</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>203065</t>
+          <t>209783</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>57,95%</t>
+          <t>59,86%</t>
         </is>
       </c>
     </row>
@@ -4485,12 +4485,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>6832</t>
+          <t>6902</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>23452</t>
+          <t>22344</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -4500,12 +4500,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4520,12 +4520,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>12728</t>
+          <t>12897</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>56765</t>
+          <t>55703</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -4535,12 +4535,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4555,12 +4555,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>23870</t>
+          <t>24191</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>66417</t>
+          <t>67147</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -4570,12 +4570,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>19,16%</t>
         </is>
       </c>
     </row>
@@ -5623,12 +5623,12 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>10387</t>
+          <t>11811</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -5658,12 +5658,12 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>1481</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>10350</t>
+          <t>12030</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -5673,12 +5673,12 @@
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -5693,12 +5693,12 @@
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>3645</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>16459</t>
+          <t>18407</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
@@ -5708,12 +5708,12 @@
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,91%</t>
         </is>
       </c>
     </row>
@@ -5736,12 +5736,12 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>41719</t>
+          <t>42392</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>107007</t>
+          <t>107611</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -5751,12 +5751,12 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -5771,12 +5771,12 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>74453</t>
+          <t>73513</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>124485</t>
+          <t>123904</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -5786,12 +5786,12 @@
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -5806,12 +5806,12 @@
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>121902</t>
+          <t>116582</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>217853</t>
+          <t>214638</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,55%</t>
         </is>
       </c>
     </row>
@@ -5849,12 +5849,12 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>887514</t>
+          <t>884629</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>1077395</t>
+          <t>1066834</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -5864,12 +5864,12 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>74,49%</t>
+          <t>74,25%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -5884,12 +5884,12 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>360809</t>
+          <t>333354</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>525387</t>
+          <t>527084</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -5899,12 +5899,12 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -5919,12 +5919,12 @@
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>1298519</t>
+          <t>1295951</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>1616709</t>
+          <t>1627411</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
@@ -5934,12 +5934,12 @@
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>63,85%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>80,02%</t>
         </is>
       </c>
     </row>
@@ -5962,12 +5962,12 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>9650</t>
+          <t>9779</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>35034</t>
+          <t>34938</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -5977,12 +5977,12 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -5997,12 +5997,12 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>5849</t>
+          <t>5495</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>235623</t>
+          <t>276858</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -6012,12 +6012,12 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -6032,12 +6032,12 @@
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>24586</t>
+          <t>24553</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>369405</t>
+          <t>353481</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>17,38%</t>
         </is>
       </c>
     </row>
@@ -6075,12 +6075,12 @@
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>60407</t>
+          <t>70614</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>172416</t>
+          <t>173762</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -6090,12 +6090,12 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
@@ -6110,12 +6110,12 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>136544</t>
+          <t>141624</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>214296</t>
+          <t>214160</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -6125,12 +6125,12 @@
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -6145,12 +6145,12 @@
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>215494</t>
+          <t>209367</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>374307</t>
+          <t>375125</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
@@ -6160,12 +6160,12 @@
       </c>
       <c r="V51" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="W51" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,44%</t>
         </is>
       </c>
     </row>
@@ -12580,12 +12580,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41358</t>
+          <t>41638</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>57453</t>
+          <t>57626</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -12595,12 +12595,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -12615,12 +12615,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>56906</t>
+          <t>57837</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>75610</t>
+          <t>76101</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -12630,12 +12630,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>37,23%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -12650,12 +12650,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>104333</t>
+          <t>104244</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>129239</t>
+          <t>128477</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -12665,12 +12665,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>31,62%</t>
         </is>
       </c>
     </row>
@@ -12693,12 +12693,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60950</t>
+          <t>60695</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78928</t>
+          <t>78284</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -12708,12 +12708,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>38,78%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -12728,12 +12728,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44698</t>
+          <t>43866</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>60845</t>
+          <t>60088</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -12743,12 +12743,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -12763,12 +12763,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>108352</t>
+          <t>108562</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>132744</t>
+          <t>132403</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -12778,12 +12778,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>32,59%</t>
         </is>
       </c>
     </row>
@@ -12806,12 +12806,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17354</t>
+          <t>17314</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29341</t>
+          <t>29590</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -12821,12 +12821,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -12841,12 +12841,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>14563</t>
+          <t>14005</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>28007</t>
+          <t>28250</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -12856,12 +12856,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -12876,12 +12876,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>34329</t>
+          <t>35089</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>53180</t>
+          <t>52411</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -12891,12 +12891,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>12,9%</t>
         </is>
       </c>
     </row>
@@ -12919,12 +12919,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52684</t>
+          <t>51959</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>70313</t>
+          <t>69717</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -12934,12 +12934,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -12954,12 +12954,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57031</t>
+          <t>56536</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>75892</t>
+          <t>75331</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -12969,12 +12969,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>36,85%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -12989,12 +12989,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>114476</t>
+          <t>114873</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>139123</t>
+          <t>139763</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -13004,12 +13004,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>34,4%</t>
         </is>
       </c>
     </row>
@@ -13375,12 +13375,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20453</t>
+          <t>20369</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33384</t>
+          <t>33705</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -13390,12 +13390,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -13410,12 +13410,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47178</t>
+          <t>47083</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>63734</t>
+          <t>62623</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -13425,12 +13425,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -13445,12 +13445,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>70680</t>
+          <t>70955</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>90907</t>
+          <t>91796</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -13460,12 +13460,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>32,65%</t>
         </is>
       </c>
     </row>
@@ -13488,12 +13488,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43419</t>
+          <t>43096</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>58447</t>
+          <t>58613</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -13503,12 +13503,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>48,53%</t>
+          <t>48,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -13523,12 +13523,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>31227</t>
+          <t>31221</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>44491</t>
+          <t>44905</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -13558,12 +13558,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>78640</t>
+          <t>78685</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>99659</t>
+          <t>100079</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -13573,12 +13573,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>35,59%</t>
         </is>
       </c>
     </row>
@@ -13601,12 +13601,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4782</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12005</t>
+          <t>11536</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -13616,12 +13616,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -13636,12 +13636,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3247</t>
+          <t>3583</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9803</t>
+          <t>9738</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -13651,12 +13651,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -13671,12 +13671,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>9970</t>
+          <t>9893</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>19137</t>
+          <t>19041</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -13686,12 +13686,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -13714,12 +13714,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>28687</t>
+          <t>28989</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>43445</t>
+          <t>43331</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -13729,12 +13729,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -13749,12 +13749,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>54543</t>
+          <t>54301</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>70970</t>
+          <t>70298</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -13764,12 +13764,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>43,74%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -13784,12 +13784,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>85698</t>
+          <t>86530</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>108717</t>
+          <t>109345</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -13799,12 +13799,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>38,89%</t>
         </is>
       </c>
     </row>
@@ -14170,12 +14170,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10660</t>
+          <t>10001</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>20944</t>
+          <t>20659</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -14185,12 +14185,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -14205,12 +14205,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6186</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>14427</t>
+          <t>14992</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -14220,12 +14220,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -14240,12 +14240,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>18236</t>
+          <t>18908</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>31998</t>
+          <t>33204</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -14255,12 +14255,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>23,1%</t>
         </is>
       </c>
     </row>
@@ -14283,12 +14283,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>31520</t>
+          <t>31601</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>46860</t>
+          <t>46647</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -14298,12 +14298,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>51,02%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -14318,12 +14318,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>5687</t>
+          <t>5853</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>14311</t>
+          <t>14388</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -14333,12 +14333,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -14353,12 +14353,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>39053</t>
+          <t>38690</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>57226</t>
+          <t>56542</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -14368,12 +14368,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>39,33%</t>
         </is>
       </c>
     </row>
@@ -14396,12 +14396,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2217</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7774</t>
+          <t>7945</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -14411,12 +14411,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -14431,12 +14431,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>503</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9977</t>
+          <t>9246</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -14446,12 +14446,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -14466,12 +14466,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>13730</t>
+          <t>13651</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -14481,12 +14481,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,5%</t>
         </is>
       </c>
     </row>
@@ -14509,12 +14509,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26951</t>
+          <t>26988</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>41792</t>
+          <t>41417</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -14524,12 +14524,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>45,71%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -14544,12 +14544,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>24152</t>
+          <t>23554</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>35626</t>
+          <t>35185</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -14559,12 +14559,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>67,25%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -14579,12 +14579,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>54325</t>
+          <t>54925</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>73053</t>
+          <t>73948</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -14594,12 +14594,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>50,82%</t>
+          <t>51,44%</t>
         </is>
       </c>
     </row>
@@ -14965,12 +14965,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>32835</t>
+          <t>32859</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>51603</t>
+          <t>51067</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -14980,12 +14980,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>32,7%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -15000,12 +15000,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>52521</t>
+          <t>53606</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>71814</t>
+          <t>71622</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -15015,12 +15015,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>48,34%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -15035,12 +15035,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>93226</t>
+          <t>91319</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>118377</t>
+          <t>119022</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -15050,12 +15050,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>39,06%</t>
         </is>
       </c>
     </row>
@@ -15078,12 +15078,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>40155</t>
+          <t>39520</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>57598</t>
+          <t>58728</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -15093,12 +15093,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>37,6%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -15113,12 +15113,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>10314</t>
+          <t>10165</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>20608</t>
+          <t>20470</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -15128,12 +15128,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -15148,12 +15148,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>52281</t>
+          <t>52279</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>73756</t>
+          <t>74237</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -15163,12 +15163,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>24,36%</t>
         </is>
       </c>
     </row>
@@ -15191,12 +15191,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>9594</t>
+          <t>9786</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>26255</t>
+          <t>25937</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -15206,12 +15206,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -15226,12 +15226,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4496</t>
+          <t>4795</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>14052</t>
+          <t>15342</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -15241,12 +15241,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -15261,12 +15261,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>16340</t>
+          <t>16342</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>36835</t>
+          <t>35761</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -15281,7 +15281,7 @@
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>11,73%</t>
         </is>
       </c>
     </row>
@@ -15304,12 +15304,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>40807</t>
+          <t>41157</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>62567</t>
+          <t>62248</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -15319,12 +15319,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -15339,12 +15339,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>54408</t>
+          <t>53538</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>73174</t>
+          <t>72748</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -15354,12 +15354,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>49,25%</t>
+          <t>48,97%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -15374,12 +15374,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>99268</t>
+          <t>99887</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>127576</t>
+          <t>127864</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -15389,12 +15389,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>41,96%</t>
         </is>
       </c>
     </row>
@@ -15760,12 +15760,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>10491</t>
+          <t>10509</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>21760</t>
+          <t>22204</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -15775,12 +15775,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -15795,12 +15795,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>32480</t>
+          <t>33205</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>48504</t>
+          <t>48386</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -15810,12 +15810,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>53,91%</t>
+          <t>53,78%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -15830,12 +15830,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>46582</t>
+          <t>46811</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>66177</t>
+          <t>66547</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -15845,12 +15845,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>46,31%</t>
         </is>
       </c>
     </row>
@@ -15873,12 +15873,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>12818</t>
+          <t>13149</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>24328</t>
+          <t>23972</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -15888,12 +15888,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>45,3%</t>
+          <t>44,63%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -15908,12 +15908,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>8491</t>
+          <t>8558</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>20179</t>
+          <t>20047</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -15923,12 +15923,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -15943,12 +15943,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>24299</t>
+          <t>23978</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>40504</t>
+          <t>40628</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -15958,12 +15958,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>28,28%</t>
         </is>
       </c>
     </row>
@@ -15986,12 +15986,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>1193</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>4883</t>
+          <t>5210</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -16001,12 +16001,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -16021,12 +16021,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>96</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>5182</t>
+          <t>4628</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -16036,12 +16036,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -16056,12 +16056,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>2155</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>8031</t>
+          <t>8047</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -16071,12 +16071,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -16099,12 +16099,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>11606</t>
+          <t>11995</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>24021</t>
+          <t>23829</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -16114,12 +16114,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -16134,12 +16134,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>26829</t>
+          <t>27385</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>42961</t>
+          <t>42228</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -16149,12 +16149,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>47,75%</t>
+          <t>46,93%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -16169,12 +16169,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>42000</t>
+          <t>41702</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>62092</t>
+          <t>61862</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -16184,12 +16184,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>43,05%</t>
         </is>
       </c>
     </row>
@@ -16555,12 +16555,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>6652</t>
+          <t>6619</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>15824</t>
+          <t>15707</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -16570,12 +16570,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>45,56%</t>
+          <t>45,22%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -16590,12 +16590,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>14399</t>
+          <t>14882</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>24722</t>
+          <t>24821</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -16605,12 +16605,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>44,33%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -16625,12 +16625,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>23514</t>
+          <t>23853</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>36810</t>
+          <t>36992</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -16640,12 +16640,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>40,87%</t>
         </is>
       </c>
     </row>
@@ -16668,12 +16668,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2761</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>9957</t>
+          <t>11268</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -16683,12 +16683,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -16703,12 +16703,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>6187</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>14592</t>
+          <t>14438</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -16718,12 +16718,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -16738,12 +16738,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>10444</t>
+          <t>9874</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>21360</t>
+          <t>21128</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -16753,12 +16753,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>23,34%</t>
         </is>
       </c>
     </row>
@@ -16781,12 +16781,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>2642</t>
+          <t>2499</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>12127</t>
+          <t>11933</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -16796,12 +16796,12 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -16816,12 +16816,12 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>376</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>3969</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -16831,12 +16831,12 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -16851,12 +16851,12 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>3686</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>15517</t>
+          <t>15366</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -16866,12 +16866,12 @@
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>16,98%</t>
         </is>
       </c>
     </row>
@@ -16894,12 +16894,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>9088</t>
+          <t>9031</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>18869</t>
+          <t>18726</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -16909,12 +16909,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>54,33%</t>
+          <t>53,92%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -16929,12 +16929,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>19722</t>
+          <t>20341</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>31197</t>
+          <t>30525</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -16944,12 +16944,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>54,73%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -16964,12 +16964,12 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>31488</t>
+          <t>31376</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>46460</t>
+          <t>46996</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
@@ -16979,12 +16979,12 @@
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>51,93%</t>
         </is>
       </c>
     </row>
@@ -17350,12 +17350,12 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>141037</t>
+          <t>141404</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>175058</t>
+          <t>175262</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -17365,12 +17365,12 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -17385,12 +17385,12 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>233665</t>
+          <t>234147</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>272693</t>
+          <t>271025</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -17400,12 +17400,12 @@
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -17420,12 +17420,12 @@
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>385434</t>
+          <t>386830</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>436077</t>
+          <t>437238</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
@@ -17435,12 +17435,12 @@
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>31,91%</t>
         </is>
       </c>
     </row>
@@ -17463,12 +17463,12 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>211975</t>
+          <t>213914</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>248764</t>
+          <t>249543</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -17478,12 +17478,12 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>37,78%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -17498,12 +17498,12 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>121106</t>
+          <t>120867</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>151822</t>
+          <t>151097</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -17513,12 +17513,12 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -17533,12 +17533,12 @@
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>345445</t>
+          <t>343979</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>393590</t>
+          <t>390546</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
@@ -17548,12 +17548,12 @@
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>28,5%</t>
         </is>
       </c>
     </row>
@@ -17576,12 +17576,12 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>48338</t>
+          <t>47866</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>73567</t>
+          <t>72262</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -17591,12 +17591,12 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -17611,12 +17611,12 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>31450</t>
+          <t>31630</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>51754</t>
+          <t>50598</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -17626,12 +17626,12 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -17646,12 +17646,12 @@
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>84306</t>
+          <t>84762</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>114924</t>
+          <t>116069</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
@@ -17661,12 +17661,12 @@
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,47%</t>
         </is>
       </c>
     </row>
@@ -17689,12 +17689,12 @@
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>190376</t>
+          <t>193728</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>228985</t>
+          <t>231870</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -17704,12 +17704,12 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>35,22%</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
@@ -17724,12 +17724,12 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>262197</t>
+          <t>262479</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>303116</t>
+          <t>299871</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -17739,12 +17739,12 @@
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>36,88%</t>
         </is>
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>42,13%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -17759,12 +17759,12 @@
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>466111</t>
+          <t>465916</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>518391</t>
+          <t>520042</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
@@ -17774,12 +17774,12 @@
       </c>
       <c r="V51" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="W51" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>37,96%</t>
         </is>
       </c>
     </row>
